--- a/Elektrobox_Stückliste.xlsx
+++ b/Elektrobox_Stückliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL\SPL\CandyMaschine_Project\CandyMachine_Watermelon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF7A7B0-3A99-4F30-847D-B8BA604F78BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B166E0F8-435C-45F2-9DD6-8A741BFA4D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9DA56051-2903-42FB-B064-034924F5A5D2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{9DA56051-2903-42FB-B064-034924F5A5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Anzahl</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>https://www.amazon.de/ZhiYo-Kabelkanal-schwarz-160cm-Verdrahtungskanal/dp/B0DG8Z24NN/ref=sxin_15_pa_sp_search_thematic_sspa?adgrpid=71325580776&amp;content-id=amzn1.sym.ad15fe60-de8e-4d4c-b31c-1f41424aec2b%3Aamzn1.sym.ad15fe60-de8e-4d4c-b31c-1f41424aec2b&amp;cv_ct_cx=verdrahtungskanal&amp;hvadid=606750939809&amp;hvdev=c&amp;hvexpln=0&amp;hvlocphy=9197120&amp;hvnetw=g&amp;hvocijid=3542066393554674558--&amp;hvqmt=e&amp;hvrand=3542066393554674558&amp;hvtargid=kwd-481602943&amp;hydadcr=2627_2331319&amp;keywords=verdrahtungskanal&amp;mcid=2dd1cc0e2a273526ad9e02c30efda0f2&amp;pd_rd_i=B0DG8Z24NN&amp;pd_rd_r=f4428e71-c3fd-481c-bc3a-6058c73ec620&amp;pd_rd_w=7abhv&amp;pd_rd_wg=AnbpK&amp;pf_rd_p=ad15fe60-de8e-4d4c-b31c-1f41424aec2b&amp;pf_rd_r=SRATWHD21K3B4JYGSHSE&amp;qid=1767943532&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=1-2-c5cf13e1-5a2b-43a3-b397-d15edbd6d76f-spons&amp;aref=pEQOzfX6Fg&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM&amp;th=1</t>
+  </si>
+  <si>
+    <t>B0DG8Z24NN</t>
   </si>
 </sst>
 </file>
@@ -91,9 +94,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +144,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,11 +194,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -223,8 +233,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>139080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Freihand 3">
@@ -243,7 +253,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Freihand 3">
@@ -626,7 +636,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,6 +714,9 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -737,6 +750,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4A34E0FF-3A6E-4F69-A963-1E8C7B7DF937}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Elektrobox_Stückliste.xlsx
+++ b/Elektrobox_Stückliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL\SPL\CandyMaschine_Project\CandyMachine_Watermelon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B166E0F8-435C-45F2-9DD6-8A741BFA4D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F6C02F-FBBA-4945-963A-6379357A455B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{9DA56051-2903-42FB-B064-034924F5A5D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9DA56051-2903-42FB-B064-034924F5A5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +683,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
